--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2343.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2343.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.106427361719562</v>
+        <v>0.3197272419929504</v>
       </c>
       <c r="B1">
-        <v>1.735171542888372</v>
+        <v>0.2511351108551025</v>
       </c>
       <c r="C1">
-        <v>4.041135788420656</v>
+        <v>0.2173262983560562</v>
       </c>
       <c r="D1">
-        <v>2.417188359791274</v>
+        <v>0.2325874418020248</v>
       </c>
       <c r="E1">
-        <v>0.9231968103302096</v>
+        <v>0.279276967048645</v>
       </c>
     </row>
   </sheetData>
